--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design(Web_Services)_B_10103_Client_Registration.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design(Web_Services)_B_10103_Client_Registration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647B061-FBD2-4A4F-8F10-49AFA1973A39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1B667D-FDFB-405C-B880-4CDCAD6F4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="36" r:id="rId1"/>
@@ -36,7 +36,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1223,6 +1228,93 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1337,92 +1429,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1460,14 +1474,32 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1475,32 +1507,179 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1519,180 +1698,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6137,56 +6142,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="116" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="125" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="134" t="s">
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="122" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="105" t="s">
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="108">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="110"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="139"/>
       <c r="AJ1" s="55"/>
       <c r="AK1" s="55"/>
       <c r="AL1" s="55"/>
@@ -6194,53 +6199,53 @@
       <c r="AN1" s="56"/>
     </row>
     <row r="2" spans="1:40" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="116" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="122" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="108">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="137">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="110"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="139"/>
       <c r="AJ2" s="55"/>
       <c r="AK2" s="55"/>
       <c r="AL2" s="55"/>
@@ -6248,45 +6253,45 @@
       <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="116" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="110"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="139"/>
       <c r="AJ3" s="55"/>
       <c r="AK3" s="55"/>
       <c r="AL3" s="55"/>
@@ -6323,1204 +6328,1048 @@
       <c r="A7" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113" t="s">
+      <c r="C7" s="141"/>
+      <c r="D7" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="113" t="s">
+      <c r="E7" s="143"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="113" t="s">
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="113" t="s">
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="113" t="s">
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="144"/>
+      <c r="AF7" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="115"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="144"/>
     </row>
     <row r="8" spans="1:40" s="83" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84">
         <v>1</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159">
+      <c r="C8" s="121"/>
+      <c r="D8" s="122">
         <v>43718</v>
       </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165" t="s">
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="165" t="s">
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="168" t="s">
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="170"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="133"/>
     </row>
     <row r="9" spans="1:40" s="83" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="85">
         <v>2</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145">
+      <c r="C9" s="106"/>
+      <c r="D9" s="107">
         <v>44833</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="145" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="154" t="s">
+      <c r="H9" s="111"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="154" t="s">
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="151" t="s">
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="153"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="115"/>
     </row>
     <row r="10" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="85"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="153"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="115"/>
     </row>
     <row r="11" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="85"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="153"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="115"/>
     </row>
     <row r="12" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="85"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="152"/>
-      <c r="AI12" s="153"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="115"/>
     </row>
     <row r="13" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="85"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="153"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="115"/>
     </row>
     <row r="14" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="85"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="153"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="115"/>
     </row>
     <row r="15" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="85"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="152"/>
-      <c r="AH15" s="152"/>
-      <c r="AI15" s="153"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="115"/>
     </row>
     <row r="16" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="85"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="152"/>
-      <c r="AH16" s="152"/>
-      <c r="AI16" s="153"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="115"/>
     </row>
     <row r="17" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="85"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="155"/>
-      <c r="AC17" s="155"/>
-      <c r="AD17" s="155"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="152"/>
-      <c r="AH17" s="152"/>
-      <c r="AI17" s="153"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="115"/>
     </row>
     <row r="18" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="85"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="152"/>
-      <c r="AH18" s="152"/>
-      <c r="AI18" s="153"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="115"/>
     </row>
     <row r="19" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="85"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="152"/>
-      <c r="AH19" s="152"/>
-      <c r="AI19" s="153"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="115"/>
     </row>
     <row r="20" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="85"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="152"/>
-      <c r="AH20" s="152"/>
-      <c r="AI20" s="153"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="115"/>
     </row>
     <row r="21" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="85"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="152"/>
-      <c r="AI21" s="153"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="115"/>
     </row>
     <row r="22" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="85"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="152"/>
-      <c r="AH22" s="152"/>
-      <c r="AI22" s="153"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="115"/>
     </row>
     <row r="23" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="85"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="155"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="152"/>
-      <c r="AH23" s="152"/>
-      <c r="AI23" s="153"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="115"/>
     </row>
     <row r="24" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="85"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="152"/>
-      <c r="AH24" s="152"/>
-      <c r="AI24" s="153"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="114"/>
+      <c r="AI24" s="115"/>
     </row>
     <row r="25" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="85"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="152"/>
-      <c r="AH25" s="152"/>
-      <c r="AI25" s="153"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="114"/>
+      <c r="AI25" s="115"/>
     </row>
     <row r="26" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="85"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="152"/>
-      <c r="AH26" s="152"/>
-      <c r="AI26" s="153"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="115"/>
     </row>
     <row r="27" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="85"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="156"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="152"/>
-      <c r="AH27" s="152"/>
-      <c r="AI27" s="153"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="118"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="114"/>
+      <c r="AH27" s="114"/>
+      <c r="AI27" s="115"/>
     </row>
     <row r="28" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="85"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="152"/>
-      <c r="AH28" s="152"/>
-      <c r="AI28" s="153"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="118"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="114"/>
+      <c r="AH28" s="114"/>
+      <c r="AI28" s="115"/>
     </row>
     <row r="29" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="85"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="152"/>
-      <c r="AH29" s="152"/>
-      <c r="AI29" s="153"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="116"/>
+      <c r="R29" s="117"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="115"/>
     </row>
     <row r="30" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="85"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="152"/>
-      <c r="AH30" s="152"/>
-      <c r="AI30" s="153"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="117"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="118"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="115"/>
     </row>
     <row r="31" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="85"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="155"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="152"/>
-      <c r="AH31" s="152"/>
-      <c r="AI31" s="153"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="118"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="115"/>
     </row>
     <row r="32" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="85"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="155"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="152"/>
-      <c r="AH32" s="152"/>
-      <c r="AI32" s="153"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="114"/>
+      <c r="AH32" s="114"/>
+      <c r="AI32" s="115"/>
     </row>
     <row r="33" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="85"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="155"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="155"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="152"/>
-      <c r="AH33" s="152"/>
-      <c r="AI33" s="153"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="115"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7544,6 +7393,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7560,7 +7565,7 @@
   <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7699,163 +7704,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="str">
+      <c r="A1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="116" t="str">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="175" t="str">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="178" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="134" t="str">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Web Services)</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="172" t="str">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="184">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="186"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="174"/>
     </row>
     <row r="2" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172" t="str">
+      <c r="A2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="116" t="str">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="172" t="str">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="184">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="186"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="174"/>
     </row>
     <row r="3" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="str">
+      <c r="A3" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="116" t="str">
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="184" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="172" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="186"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="174"/>
     </row>
     <row r="4" spans="1:35" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
@@ -9137,6 +9142,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9146,14 +9159,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9181,163 +9186,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="str">
+      <c r="A1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="116" t="str">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="175" t="str">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="178" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="134" t="str">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Web Services)</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="172" t="str">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="184">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="186"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="174"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172" t="str">
+      <c r="A2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="116" t="str">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="172" t="str">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="184">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="186"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="174"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="str">
+      <c r="A3" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="116" t="str">
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="184" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="172" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="186"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="174"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
@@ -9493,92 +9498,92 @@
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="188" t="s">
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188"/>
-      <c r="AC8" s="188"/>
-      <c r="AD8" s="188"/>
-      <c r="AE8" s="188"/>
-      <c r="AF8" s="188"/>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="197"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="197"/>
+      <c r="AH8" s="197"/>
     </row>
     <row r="9" spans="1:35" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="189" t="s">
+      <c r="D9" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="187" t="s">
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="187"/>
-      <c r="AF9" s="187"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="187"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="196"/>
+      <c r="R9" s="196"/>
+      <c r="S9" s="196"/>
+      <c r="T9" s="196"/>
+      <c r="U9" s="196"/>
+      <c r="V9" s="196"/>
+      <c r="W9" s="196"/>
+      <c r="X9" s="196"/>
+      <c r="Y9" s="196"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="196"/>
+      <c r="AD9" s="196"/>
+      <c r="AE9" s="196"/>
+      <c r="AF9" s="196"/>
+      <c r="AG9" s="196"/>
+      <c r="AH9" s="196"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="192" t="s">
+      <c r="D10" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="189"/>
       <c r="H10" s="46" t="s">
         <v>10</v>
       </c>
@@ -9613,172 +9618,172 @@
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="189" t="s">
+      <c r="D11" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="188" t="s">
+      <c r="E11" s="191"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="188"/>
-      <c r="O11" s="188"/>
-      <c r="P11" s="188"/>
-      <c r="Q11" s="188"/>
-      <c r="R11" s="188"/>
-      <c r="S11" s="188"/>
-      <c r="T11" s="188"/>
-      <c r="U11" s="188"/>
-      <c r="V11" s="188"/>
-      <c r="W11" s="188"/>
-      <c r="X11" s="188"/>
-      <c r="Y11" s="188"/>
-      <c r="Z11" s="188"/>
-      <c r="AA11" s="188"/>
-      <c r="AB11" s="188"/>
-      <c r="AC11" s="188"/>
-      <c r="AD11" s="188"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="188"/>
-      <c r="AG11" s="188"/>
-      <c r="AH11" s="188"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="197"/>
     </row>
     <row r="12" spans="1:35" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="43"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="187" t="s">
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="187"/>
-      <c r="AF12" s="187"/>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="187"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
+      <c r="N12" s="196"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="196"/>
+      <c r="R12" s="196"/>
+      <c r="S12" s="196"/>
+      <c r="T12" s="196"/>
+      <c r="U12" s="196"/>
+      <c r="V12" s="196"/>
+      <c r="W12" s="196"/>
+      <c r="X12" s="196"/>
+      <c r="Y12" s="196"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="196"/>
+      <c r="AB12" s="196"/>
+      <c r="AC12" s="196"/>
+      <c r="AD12" s="196"/>
+      <c r="AE12" s="196"/>
+      <c r="AF12" s="196"/>
+      <c r="AG12" s="196"/>
+      <c r="AH12" s="196"/>
     </row>
     <row r="13" spans="1:35" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="189" t="s">
+      <c r="D13" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="187" t="s">
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="187"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="187"/>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="187"/>
-      <c r="AE13" s="187"/>
-      <c r="AF13" s="187"/>
-      <c r="AG13" s="187"/>
-      <c r="AH13" s="187"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="196"/>
+      <c r="S13" s="196"/>
+      <c r="T13" s="196"/>
+      <c r="U13" s="196"/>
+      <c r="V13" s="196"/>
+      <c r="W13" s="196"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="196"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="196"/>
+      <c r="AD13" s="196"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="196"/>
+      <c r="AG13" s="196"/>
+      <c r="AH13" s="196"/>
     </row>
     <row r="14" spans="1:35" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="187" t="s">
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="187"/>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="187"/>
-      <c r="AF14" s="187"/>
-      <c r="AG14" s="187"/>
-      <c r="AH14" s="187"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
+      <c r="S14" s="196"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="196"/>
+      <c r="Z14" s="196"/>
+      <c r="AA14" s="196"/>
+      <c r="AB14" s="196"/>
+      <c r="AC14" s="196"/>
+      <c r="AD14" s="196"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="196"/>
+      <c r="AG14" s="196"/>
+      <c r="AH14" s="196"/>
     </row>
     <row r="15" spans="1:35" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="189" t="s">
+      <c r="D15" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="192"/>
       <c r="H15" s="49" t="s">
         <v>18</v>
       </c>
@@ -9926,30 +9931,30 @@
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="195"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="196"/>
-      <c r="T19" s="196"/>
-      <c r="U19" s="196"/>
-      <c r="V19" s="196"/>
-      <c r="W19" s="196"/>
-      <c r="X19" s="196"/>
-      <c r="Y19" s="196"/>
-      <c r="Z19" s="196"/>
-      <c r="AA19" s="196"/>
-      <c r="AB19" s="196"/>
-      <c r="AC19" s="196"/>
-      <c r="AD19" s="196"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
       <c r="AE19" s="52"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10401,15 +10406,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10426,14 +10430,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10462,163 +10467,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="str">
+      <c r="A1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="116" t="str">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="175" t="str">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="178" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="134" t="str">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Web Services)</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="172" t="str">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="184">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="186"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="174"/>
     </row>
     <row r="2" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172" t="str">
+      <c r="A2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="116" t="str">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="172" t="str">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="184">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="186"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="174"/>
     </row>
     <row r="3" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="str">
+      <c r="A3" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="116" t="str">
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="184" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="172" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="186"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="174"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10629,12 +10634,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -10646,6 +10645,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10675,169 +10680,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="str">
+      <c r="A1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="116" t="str">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="175" t="str">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="178" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="134" t="str">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design(Web Services)</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="172" t="str">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="184">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="186"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="174"/>
       <c r="AJ1" s="55"/>
       <c r="AK1" s="55"/>
       <c r="AL1" s="56"/>
     </row>
     <row r="2" spans="1:38" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172" t="str">
+      <c r="A2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="116" t="str">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="172" t="str">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="184">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="172">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44833</v>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="186"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="174"/>
       <c r="AJ2" s="55"/>
       <c r="AK2" s="55"/>
       <c r="AL2" s="55"/>
     </row>
     <row r="3" spans="1:38" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="str">
+      <c r="A3" s="175" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="116" t="str">
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="184" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="172" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="186"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="174"/>
       <c r="AJ3" s="55"/>
       <c r="AK3" s="55"/>
       <c r="AL3" s="55"/>
@@ -10955,65 +10960,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="224" t="s">
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="238" t="s">
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="243" t="s">
+      <c r="P8" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="245"/>
-      <c r="V8" s="240" t="s">
+      <c r="Q8" s="227"/>
+      <c r="R8" s="227"/>
+      <c r="S8" s="227"/>
+      <c r="T8" s="227"/>
+      <c r="U8" s="228"/>
+      <c r="V8" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="240"/>
-      <c r="X8" s="240"/>
-      <c r="Y8" s="240"/>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="240"/>
-      <c r="AC8" s="240"/>
-      <c r="AD8" s="240"/>
-      <c r="AE8" s="240"/>
-      <c r="AF8" s="240"/>
-      <c r="AG8" s="240"/>
-      <c r="AH8" s="240"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="223"/>
+      <c r="Z8" s="223"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="223"/>
+      <c r="AF8" s="223"/>
+      <c r="AG8" s="223"/>
+      <c r="AH8" s="223"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="228"/>
-      <c r="M9" s="228"/>
-      <c r="N9" s="229"/>
-      <c r="O9" s="239"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="247"/>
+      <c r="O9" s="222"/>
       <c r="P9" s="58" t="s">
         <v>25</v>
       </c>
@@ -11026,23 +11031,23 @@
       <c r="S9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="241" t="s">
+      <c r="T9" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="242"/>
-      <c r="V9" s="240"/>
-      <c r="W9" s="240"/>
-      <c r="X9" s="240"/>
-      <c r="Y9" s="240"/>
-      <c r="Z9" s="240"/>
-      <c r="AA9" s="240"/>
-      <c r="AB9" s="240"/>
-      <c r="AC9" s="240"/>
-      <c r="AD9" s="240"/>
-      <c r="AE9" s="240"/>
-      <c r="AF9" s="240"/>
-      <c r="AG9" s="240"/>
-      <c r="AH9" s="240"/>
+      <c r="U9" s="225"/>
+      <c r="V9" s="223"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="223"/>
+      <c r="Z9" s="223"/>
+      <c r="AA9" s="223"/>
+      <c r="AB9" s="223"/>
+      <c r="AC9" s="223"/>
+      <c r="AD9" s="223"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="223"/>
+      <c r="AG9" s="223"/>
+      <c r="AH9" s="223"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
@@ -11050,20 +11055,20 @@
       <c r="D10" s="59">
         <v>1</v>
       </c>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="154" t="s">
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="156"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
       <c r="O10" s="60" t="s">
         <v>32</v>
       </c>
@@ -11079,23 +11084,23 @@
       <c r="S10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="249" t="s">
+      <c r="T10" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="250"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="155"/>
-      <c r="AG10" s="155"/>
-      <c r="AH10" s="156"/>
+      <c r="U10" s="230"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="117"/>
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="118"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="43"/>
@@ -11103,20 +11108,20 @@
       <c r="D11" s="59">
         <v>2</v>
       </c>
-      <c r="E11" s="154" t="s">
+      <c r="E11" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="154" t="s">
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="156"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
       <c r="O11" s="62" t="s">
         <v>36</v>
       </c>
@@ -11132,23 +11137,23 @@
       <c r="S11" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="249" t="s">
+      <c r="T11" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="250"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="155"/>
-      <c r="AG11" s="155"/>
-      <c r="AH11" s="156"/>
+      <c r="U11" s="230"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="117"/>
+      <c r="AH11" s="118"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="43"/>
@@ -11156,20 +11161,20 @@
       <c r="D12" s="59">
         <v>3</v>
       </c>
-      <c r="E12" s="154" t="s">
+      <c r="E12" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="154" t="s">
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="118"/>
       <c r="O12" s="62" t="s">
         <v>36</v>
       </c>
@@ -11185,23 +11190,23 @@
       <c r="S12" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="249" t="s">
+      <c r="T12" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="250"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="155"/>
-      <c r="AG12" s="155"/>
-      <c r="AH12" s="156"/>
+      <c r="U12" s="230"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="118"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="43"/>
@@ -11350,40 +11355,40 @@
       <c r="D17" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="231" t="s">
+      <c r="E17" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="232"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="251" t="s">
+      <c r="F17" s="250"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="252"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
-      <c r="R17" s="252"/>
-      <c r="S17" s="252"/>
-      <c r="T17" s="252"/>
-      <c r="U17" s="252"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="252"/>
-      <c r="X17" s="252"/>
-      <c r="Y17" s="252"/>
-      <c r="Z17" s="252"/>
-      <c r="AA17" s="252"/>
-      <c r="AB17" s="252"/>
-      <c r="AC17" s="252"/>
-      <c r="AD17" s="252"/>
-      <c r="AE17" s="252"/>
-      <c r="AF17" s="252"/>
-      <c r="AG17" s="252"/>
-      <c r="AH17" s="253"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="232"/>
+      <c r="R17" s="232"/>
+      <c r="S17" s="232"/>
+      <c r="T17" s="232"/>
+      <c r="U17" s="232"/>
+      <c r="V17" s="232"/>
+      <c r="W17" s="232"/>
+      <c r="X17" s="232"/>
+      <c r="Y17" s="232"/>
+      <c r="Z17" s="232"/>
+      <c r="AA17" s="232"/>
+      <c r="AB17" s="232"/>
+      <c r="AC17" s="232"/>
+      <c r="AD17" s="232"/>
+      <c r="AE17" s="232"/>
+      <c r="AF17" s="232"/>
+      <c r="AG17" s="232"/>
+      <c r="AH17" s="233"/>
     </row>
     <row r="18" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="43"/>
@@ -11391,40 +11396,40 @@
       <c r="D18" s="59">
         <v>1</v>
       </c>
-      <c r="E18" s="154" t="s">
+      <c r="E18" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="155"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="154" t="s">
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
-      <c r="AE18" s="155"/>
-      <c r="AF18" s="155"/>
-      <c r="AG18" s="155"/>
-      <c r="AH18" s="156"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="118"/>
     </row>
     <row r="19" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
@@ -11432,40 +11437,40 @@
       <c r="D19" s="59">
         <v>2</v>
       </c>
-      <c r="E19" s="154" t="s">
+      <c r="E19" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="154" t="s">
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="155"/>
-      <c r="AF19" s="155"/>
-      <c r="AG19" s="155"/>
-      <c r="AH19" s="156"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="118"/>
     </row>
     <row r="20" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
@@ -11473,40 +11478,40 @@
       <c r="D20" s="59">
         <v>3</v>
       </c>
-      <c r="E20" s="154" t="s">
+      <c r="E20" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="155"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="154" t="s">
+      <c r="F20" s="117"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="155"/>
-      <c r="AH20" s="156"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="118"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
@@ -11762,44 +11767,44 @@
       <c r="B28" s="25"/>
       <c r="C28" s="43"/>
       <c r="D28" s="45"/>
-      <c r="E28" s="254" t="s">
+      <c r="E28" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="254"/>
-      <c r="G28" s="187" t="s">
+      <c r="F28" s="207"/>
+      <c r="G28" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="230" t="s">
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="N28" s="230"/>
-      <c r="O28" s="246" t="s">
+      <c r="N28" s="248"/>
+      <c r="O28" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="247"/>
-      <c r="Q28" s="247"/>
-      <c r="R28" s="247"/>
-      <c r="S28" s="247"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="247"/>
-      <c r="V28" s="247"/>
-      <c r="W28" s="247"/>
-      <c r="X28" s="247"/>
-      <c r="Y28" s="247"/>
-      <c r="Z28" s="247"/>
-      <c r="AA28" s="247"/>
-      <c r="AB28" s="247"/>
-      <c r="AC28" s="247"/>
-      <c r="AD28" s="247"/>
-      <c r="AE28" s="247"/>
-      <c r="AF28" s="247"/>
-      <c r="AG28" s="247"/>
-      <c r="AH28" s="248"/>
+      <c r="P28" s="210"/>
+      <c r="Q28" s="210"/>
+      <c r="R28" s="210"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="210"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="210"/>
+      <c r="AD28" s="210"/>
+      <c r="AE28" s="210"/>
+      <c r="AF28" s="210"/>
+      <c r="AG28" s="210"/>
+      <c r="AH28" s="211"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
@@ -11983,85 +11988,85 @@
       <c r="E37" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="256" t="s">
+      <c r="F37" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="257"/>
-      <c r="H37" s="257"/>
-      <c r="I37" s="257"/>
-      <c r="J37" s="257"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="256" t="s">
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="217"/>
+      <c r="L37" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="257"/>
-      <c r="N37" s="257"/>
-      <c r="O37" s="257"/>
-      <c r="P37" s="257"/>
-      <c r="Q37" s="257"/>
-      <c r="R37" s="257"/>
-      <c r="S37" s="257"/>
-      <c r="T37" s="257"/>
-      <c r="U37" s="258"/>
-      <c r="V37" s="259" t="s">
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
+      <c r="O37" s="216"/>
+      <c r="P37" s="216"/>
+      <c r="Q37" s="216"/>
+      <c r="R37" s="216"/>
+      <c r="S37" s="216"/>
+      <c r="T37" s="216"/>
+      <c r="U37" s="217"/>
+      <c r="V37" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="W37" s="260"/>
-      <c r="X37" s="261"/>
-      <c r="Y37" s="198" t="s">
+      <c r="W37" s="219"/>
+      <c r="X37" s="220"/>
+      <c r="Y37" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="Z37" s="199"/>
-      <c r="AA37" s="199"/>
-      <c r="AB37" s="200"/>
-      <c r="AC37" s="201" t="s">
+      <c r="Z37" s="257"/>
+      <c r="AA37" s="257"/>
+      <c r="AB37" s="258"/>
+      <c r="AC37" s="259" t="s">
         <v>53</v>
       </c>
-      <c r="AD37" s="202"/>
-      <c r="AE37" s="202"/>
-      <c r="AF37" s="203"/>
+      <c r="AD37" s="260"/>
+      <c r="AE37" s="260"/>
+      <c r="AF37" s="261"/>
     </row>
     <row r="38" spans="3:32" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="71">
         <v>1</v>
       </c>
-      <c r="F38" s="204" t="s">
+      <c r="F38" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="206"/>
-      <c r="L38" s="204" t="s">
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="214"/>
+      <c r="L38" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="M38" s="205"/>
-      <c r="N38" s="205"/>
-      <c r="O38" s="205"/>
-      <c r="P38" s="205"/>
-      <c r="Q38" s="205"/>
-      <c r="R38" s="205"/>
-      <c r="S38" s="205"/>
-      <c r="T38" s="205"/>
-      <c r="U38" s="206"/>
-      <c r="V38" s="216" t="s">
+      <c r="M38" s="213"/>
+      <c r="N38" s="213"/>
+      <c r="O38" s="213"/>
+      <c r="P38" s="213"/>
+      <c r="Q38" s="213"/>
+      <c r="R38" s="213"/>
+      <c r="S38" s="213"/>
+      <c r="T38" s="213"/>
+      <c r="U38" s="214"/>
+      <c r="V38" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="W38" s="217"/>
-      <c r="X38" s="218"/>
-      <c r="Y38" s="204" t="s">
+      <c r="W38" s="202"/>
+      <c r="X38" s="203"/>
+      <c r="Y38" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="Z38" s="205"/>
-      <c r="AA38" s="205"/>
-      <c r="AB38" s="206"/>
-      <c r="AC38" s="204" t="s">
+      <c r="Z38" s="213"/>
+      <c r="AA38" s="213"/>
+      <c r="AB38" s="214"/>
+      <c r="AC38" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="AD38" s="205"/>
-      <c r="AE38" s="205"/>
-      <c r="AF38" s="206"/>
+      <c r="AD38" s="213"/>
+      <c r="AE38" s="213"/>
+      <c r="AF38" s="214"/>
     </row>
     <row r="41" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D41" s="21" t="s">
@@ -12269,44 +12274,44 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
-      <c r="E62" s="255" t="s">
+      <c r="E62" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="255"/>
-      <c r="G62" s="246" t="s">
+      <c r="F62" s="208"/>
+      <c r="G62" s="209" t="s">
         <v>113</v>
       </c>
-      <c r="H62" s="247"/>
-      <c r="I62" s="247"/>
-      <c r="J62" s="247"/>
-      <c r="K62" s="247"/>
-      <c r="L62" s="248"/>
-      <c r="M62" s="255" t="s">
+      <c r="H62" s="210"/>
+      <c r="I62" s="210"/>
+      <c r="J62" s="210"/>
+      <c r="K62" s="210"/>
+      <c r="L62" s="211"/>
+      <c r="M62" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="N62" s="255"/>
-      <c r="O62" s="246" t="s">
+      <c r="N62" s="208"/>
+      <c r="O62" s="209" t="s">
         <v>120</v>
       </c>
-      <c r="P62" s="247"/>
-      <c r="Q62" s="247"/>
-      <c r="R62" s="247"/>
-      <c r="S62" s="247"/>
-      <c r="T62" s="247"/>
-      <c r="U62" s="247"/>
-      <c r="V62" s="247"/>
-      <c r="W62" s="247"/>
-      <c r="X62" s="247"/>
-      <c r="Y62" s="247"/>
-      <c r="Z62" s="247"/>
-      <c r="AA62" s="247"/>
-      <c r="AB62" s="247"/>
-      <c r="AC62" s="247"/>
-      <c r="AD62" s="247"/>
-      <c r="AE62" s="247"/>
-      <c r="AF62" s="247"/>
-      <c r="AG62" s="247"/>
-      <c r="AH62" s="248"/>
+      <c r="P62" s="210"/>
+      <c r="Q62" s="210"/>
+      <c r="R62" s="210"/>
+      <c r="S62" s="210"/>
+      <c r="T62" s="210"/>
+      <c r="U62" s="210"/>
+      <c r="V62" s="210"/>
+      <c r="W62" s="210"/>
+      <c r="X62" s="210"/>
+      <c r="Y62" s="210"/>
+      <c r="Z62" s="210"/>
+      <c r="AA62" s="210"/>
+      <c r="AB62" s="210"/>
+      <c r="AC62" s="210"/>
+      <c r="AD62" s="210"/>
+      <c r="AE62" s="210"/>
+      <c r="AF62" s="210"/>
+      <c r="AG62" s="210"/>
+      <c r="AH62" s="211"/>
     </row>
     <row r="63" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
@@ -12409,86 +12414,86 @@
     <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
-      <c r="E66" s="234" t="s">
+      <c r="E66" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="207" t="s">
+      <c r="F66" s="234" t="s">
         <v>64</v>
       </c>
-      <c r="G66" s="208"/>
-      <c r="H66" s="208"/>
-      <c r="I66" s="209"/>
-      <c r="J66" s="207" t="s">
+      <c r="G66" s="235"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="236"/>
+      <c r="J66" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="K66" s="208"/>
-      <c r="L66" s="208"/>
-      <c r="M66" s="209"/>
-      <c r="N66" s="236" t="s">
+      <c r="K66" s="235"/>
+      <c r="L66" s="235"/>
+      <c r="M66" s="236"/>
+      <c r="N66" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="O66" s="236"/>
-      <c r="P66" s="236"/>
-      <c r="Q66" s="236"/>
-      <c r="R66" s="236"/>
-      <c r="S66" s="236"/>
-      <c r="T66" s="236"/>
-      <c r="U66" s="236"/>
-      <c r="V66" s="236"/>
-      <c r="W66" s="207" t="s">
+      <c r="O66" s="254"/>
+      <c r="P66" s="254"/>
+      <c r="Q66" s="254"/>
+      <c r="R66" s="254"/>
+      <c r="S66" s="254"/>
+      <c r="T66" s="254"/>
+      <c r="U66" s="254"/>
+      <c r="V66" s="254"/>
+      <c r="W66" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="X66" s="208"/>
-      <c r="Y66" s="208"/>
-      <c r="Z66" s="208"/>
-      <c r="AA66" s="208"/>
-      <c r="AB66" s="208"/>
-      <c r="AC66" s="209"/>
-      <c r="AD66" s="207" t="s">
+      <c r="X66" s="235"/>
+      <c r="Y66" s="235"/>
+      <c r="Z66" s="235"/>
+      <c r="AA66" s="235"/>
+      <c r="AB66" s="235"/>
+      <c r="AC66" s="236"/>
+      <c r="AD66" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="AE66" s="208"/>
-      <c r="AF66" s="208"/>
-      <c r="AG66" s="208"/>
-      <c r="AH66" s="209"/>
+      <c r="AE66" s="235"/>
+      <c r="AF66" s="235"/>
+      <c r="AG66" s="235"/>
+      <c r="AH66" s="236"/>
     </row>
     <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="43"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="235"/>
-      <c r="F67" s="210"/>
-      <c r="G67" s="211"/>
-      <c r="H67" s="211"/>
-      <c r="I67" s="212"/>
-      <c r="J67" s="210"/>
-      <c r="K67" s="211"/>
-      <c r="L67" s="211"/>
-      <c r="M67" s="212"/>
-      <c r="N67" s="236" t="s">
+      <c r="E67" s="253"/>
+      <c r="F67" s="237"/>
+      <c r="G67" s="238"/>
+      <c r="H67" s="238"/>
+      <c r="I67" s="239"/>
+      <c r="J67" s="237"/>
+      <c r="K67" s="238"/>
+      <c r="L67" s="238"/>
+      <c r="M67" s="239"/>
+      <c r="N67" s="254" t="s">
         <v>68</v>
       </c>
-      <c r="O67" s="236"/>
-      <c r="P67" s="236"/>
-      <c r="Q67" s="236"/>
-      <c r="R67" s="236"/>
-      <c r="S67" s="237" t="s">
+      <c r="O67" s="254"/>
+      <c r="P67" s="254"/>
+      <c r="Q67" s="254"/>
+      <c r="R67" s="254"/>
+      <c r="S67" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="T67" s="237"/>
-      <c r="U67" s="237"/>
-      <c r="V67" s="237"/>
-      <c r="W67" s="210"/>
-      <c r="X67" s="211"/>
-      <c r="Y67" s="211"/>
-      <c r="Z67" s="211"/>
-      <c r="AA67" s="211"/>
-      <c r="AB67" s="211"/>
-      <c r="AC67" s="212"/>
-      <c r="AD67" s="210"/>
-      <c r="AE67" s="211"/>
-      <c r="AF67" s="211"/>
-      <c r="AG67" s="211"/>
-      <c r="AH67" s="212"/>
+      <c r="T67" s="255"/>
+      <c r="U67" s="255"/>
+      <c r="V67" s="255"/>
+      <c r="W67" s="237"/>
+      <c r="X67" s="238"/>
+      <c r="Y67" s="238"/>
+      <c r="Z67" s="238"/>
+      <c r="AA67" s="238"/>
+      <c r="AB67" s="238"/>
+      <c r="AC67" s="239"/>
+      <c r="AD67" s="237"/>
+      <c r="AE67" s="238"/>
+      <c r="AF67" s="238"/>
+      <c r="AG67" s="238"/>
+      <c r="AH67" s="239"/>
     </row>
     <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C68" s="43"/>
@@ -12496,43 +12501,43 @@
       <c r="E68" s="73">
         <v>1</v>
       </c>
-      <c r="F68" s="216" t="s">
+      <c r="F68" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="217"/>
-      <c r="H68" s="217"/>
-      <c r="I68" s="218"/>
-      <c r="J68" s="216" t="s">
+      <c r="G68" s="202"/>
+      <c r="H68" s="202"/>
+      <c r="I68" s="203"/>
+      <c r="J68" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="K68" s="217"/>
-      <c r="L68" s="217"/>
-      <c r="M68" s="218"/>
-      <c r="N68" s="219" t="s">
+      <c r="K68" s="202"/>
+      <c r="L68" s="202"/>
+      <c r="M68" s="203"/>
+      <c r="N68" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="O68" s="220"/>
-      <c r="P68" s="220"/>
-      <c r="Q68" s="220"/>
-      <c r="R68" s="220"/>
-      <c r="S68" s="221" t="s">
+      <c r="O68" s="205"/>
+      <c r="P68" s="205"/>
+      <c r="Q68" s="205"/>
+      <c r="R68" s="205"/>
+      <c r="S68" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="T68" s="221"/>
-      <c r="U68" s="221"/>
-      <c r="V68" s="221"/>
-      <c r="W68" s="213"/>
-      <c r="X68" s="214"/>
-      <c r="Y68" s="214"/>
-      <c r="Z68" s="214"/>
-      <c r="AA68" s="214"/>
-      <c r="AB68" s="214"/>
-      <c r="AC68" s="215"/>
-      <c r="AD68" s="213"/>
-      <c r="AE68" s="214"/>
-      <c r="AF68" s="214"/>
-      <c r="AG68" s="214"/>
-      <c r="AH68" s="215"/>
+      <c r="T68" s="206"/>
+      <c r="U68" s="206"/>
+      <c r="V68" s="206"/>
+      <c r="W68" s="198"/>
+      <c r="X68" s="199"/>
+      <c r="Y68" s="199"/>
+      <c r="Z68" s="199"/>
+      <c r="AA68" s="199"/>
+      <c r="AB68" s="199"/>
+      <c r="AC68" s="200"/>
+      <c r="AD68" s="198"/>
+      <c r="AE68" s="199"/>
+      <c r="AF68" s="199"/>
+      <c r="AG68" s="199"/>
+      <c r="AH68" s="200"/>
     </row>
     <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="43"/>
@@ -12540,43 +12545,43 @@
       <c r="E69" s="73">
         <v>2</v>
       </c>
-      <c r="F69" s="216" t="s">
+      <c r="F69" s="201" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="217"/>
-      <c r="H69" s="217"/>
-      <c r="I69" s="218"/>
-      <c r="J69" s="216" t="s">
+      <c r="G69" s="202"/>
+      <c r="H69" s="202"/>
+      <c r="I69" s="203"/>
+      <c r="J69" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="K69" s="217"/>
-      <c r="L69" s="217"/>
-      <c r="M69" s="218"/>
-      <c r="N69" s="219" t="s">
+      <c r="K69" s="202"/>
+      <c r="L69" s="202"/>
+      <c r="M69" s="203"/>
+      <c r="N69" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="O69" s="220"/>
-      <c r="P69" s="220"/>
-      <c r="Q69" s="220"/>
-      <c r="R69" s="220"/>
-      <c r="S69" s="221" t="s">
+      <c r="O69" s="205"/>
+      <c r="P69" s="205"/>
+      <c r="Q69" s="205"/>
+      <c r="R69" s="205"/>
+      <c r="S69" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="T69" s="221"/>
-      <c r="U69" s="221"/>
-      <c r="V69" s="221"/>
-      <c r="W69" s="213"/>
-      <c r="X69" s="214"/>
-      <c r="Y69" s="214"/>
-      <c r="Z69" s="214"/>
-      <c r="AA69" s="214"/>
-      <c r="AB69" s="214"/>
-      <c r="AC69" s="215"/>
-      <c r="AD69" s="213"/>
-      <c r="AE69" s="214"/>
-      <c r="AF69" s="214"/>
-      <c r="AG69" s="214"/>
-      <c r="AH69" s="215"/>
+      <c r="T69" s="206"/>
+      <c r="U69" s="206"/>
+      <c r="V69" s="206"/>
+      <c r="W69" s="198"/>
+      <c r="X69" s="199"/>
+      <c r="Y69" s="199"/>
+      <c r="Z69" s="199"/>
+      <c r="AA69" s="199"/>
+      <c r="AB69" s="199"/>
+      <c r="AC69" s="200"/>
+      <c r="AD69" s="198"/>
+      <c r="AE69" s="199"/>
+      <c r="AF69" s="199"/>
+      <c r="AG69" s="199"/>
+      <c r="AH69" s="200"/>
     </row>
     <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C70" s="43"/>
@@ -12584,58 +12589,106 @@
       <c r="E70" s="73">
         <v>3</v>
       </c>
-      <c r="F70" s="216" t="s">
+      <c r="F70" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="217"/>
-      <c r="H70" s="217"/>
-      <c r="I70" s="218"/>
-      <c r="J70" s="216" t="s">
+      <c r="G70" s="202"/>
+      <c r="H70" s="202"/>
+      <c r="I70" s="203"/>
+      <c r="J70" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="K70" s="217"/>
-      <c r="L70" s="217"/>
-      <c r="M70" s="218"/>
-      <c r="N70" s="219" t="s">
+      <c r="K70" s="202"/>
+      <c r="L70" s="202"/>
+      <c r="M70" s="203"/>
+      <c r="N70" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="O70" s="220"/>
-      <c r="P70" s="220"/>
-      <c r="Q70" s="220"/>
-      <c r="R70" s="220"/>
-      <c r="S70" s="221" t="s">
+      <c r="O70" s="205"/>
+      <c r="P70" s="205"/>
+      <c r="Q70" s="205"/>
+      <c r="R70" s="205"/>
+      <c r="S70" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="T70" s="221"/>
-      <c r="U70" s="221"/>
-      <c r="V70" s="221"/>
-      <c r="W70" s="213"/>
-      <c r="X70" s="214"/>
-      <c r="Y70" s="214"/>
-      <c r="Z70" s="214"/>
-      <c r="AA70" s="214"/>
-      <c r="AB70" s="214"/>
-      <c r="AC70" s="215"/>
-      <c r="AD70" s="213"/>
-      <c r="AE70" s="214"/>
-      <c r="AF70" s="214"/>
-      <c r="AG70" s="214"/>
-      <c r="AH70" s="215"/>
+      <c r="T70" s="206"/>
+      <c r="U70" s="206"/>
+      <c r="V70" s="206"/>
+      <c r="W70" s="198"/>
+      <c r="X70" s="199"/>
+      <c r="Y70" s="199"/>
+      <c r="Z70" s="199"/>
+      <c r="AA70" s="199"/>
+      <c r="AB70" s="199"/>
+      <c r="AC70" s="200"/>
+      <c r="AD70" s="198"/>
+      <c r="AE70" s="199"/>
+      <c r="AF70" s="199"/>
+      <c r="AG70" s="199"/>
+      <c r="AH70" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:R68"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="W68:AC68"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:R69"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W69:AC69"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="W66:AC67"/>
+    <mergeCell ref="AD66:AH67"/>
+    <mergeCell ref="AD70:AH70"/>
+    <mergeCell ref="W70:AC70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J66:M67"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="F66:I67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="N66:V66"/>
+    <mergeCell ref="N67:R67"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="O28:AH28"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E28:F28"/>
@@ -12652,66 +12705,18 @@
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="L37:U37"/>
     <mergeCell ref="V37:X37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="J66:M67"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="F66:I67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="N66:V66"/>
-    <mergeCell ref="N67:R67"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="AD70:AH70"/>
-    <mergeCell ref="W70:AC70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="W66:AC67"/>
-    <mergeCell ref="AD66:AH67"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:R68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="W68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:AC69"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="2">
